--- a/data/from_paper/manually_edit_datapoints.xlsx
+++ b/data/from_paper/manually_edit_datapoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3633030-3A1E-47DF-A0C4-1B874742C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9E35C-550F-4A4F-A478-608B4E903B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
   <si>
     <t>Entry</t>
   </si>
@@ -471,14 +471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>substrate smiles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>methylation site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>enzyme</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,6 +554,18 @@
   </si>
   <si>
     <t>N, 35</t>
+  </si>
+  <si>
+    <t>substrate_smiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>methylation_site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reactant_site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -965,15 +969,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,16 +988,19 @@
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1004,10 +1011,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1018,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1032,10 +1039,10 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1046,13 +1053,13 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1063,10 +1070,10 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1080,13 +1087,13 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -1100,13 +1107,13 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1120,13 +1127,13 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1137,10 +1144,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1151,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1165,10 +1172,10 @@
         <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1179,10 +1186,10 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -1193,10 +1200,10 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
@@ -1207,10 +1214,10 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,10 +1242,10 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,10 +1259,10 @@
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,7 +1279,7 @@
         <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="6"/>
     </row>
@@ -1290,7 +1297,7 @@
         <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -1308,7 +1315,7 @@
         <v>77</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>92</v>
@@ -1328,7 +1335,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>92</v>
@@ -1348,7 +1355,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>93</v>
@@ -1368,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>94</v>
@@ -1388,7 +1395,7 @@
         <v>81</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25" s="6"/>
     </row>
@@ -1406,7 +1413,7 @@
         <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>95</v>
@@ -1426,7 +1433,7 @@
         <v>82</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>96</v>
@@ -1446,7 +1453,7 @@
         <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>97</v>
@@ -1466,7 +1473,7 @@
         <v>82</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>98</v>
@@ -1486,7 +1493,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>99</v>
@@ -1506,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>100</v>
@@ -1526,7 +1533,7 @@
         <v>84</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>93</v>
@@ -1546,7 +1553,7 @@
         <v>85</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>93</v>
@@ -1566,7 +1573,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>93</v>
@@ -1586,7 +1593,7 @@
         <v>87</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>93</v>
@@ -1606,7 +1613,7 @@
         <v>88</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>101</v>
@@ -1626,7 +1633,7 @@
         <v>89</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>101</v>
@@ -1646,7 +1653,7 @@
         <v>90</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>101</v>
@@ -1666,7 +1673,7 @@
         <v>91</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>102</v>
@@ -1675,5 +1682,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>